--- a/Result/LSTM Multi/Manufacturing/BRA.xlsx
+++ b/Result/LSTM Multi/Manufacturing/BRA.xlsx
@@ -716,7 +716,7 @@
         <v>2017</v>
       </c>
       <c r="B2">
-        <v>5.664737701416016</v>
+        <v>4.582893371582031</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -724,7 +724,7 @@
         <v>2018</v>
       </c>
       <c r="B3">
-        <v>6.1986403465271</v>
+        <v>7.086946964263916</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -732,7 +732,7 @@
         <v>2019</v>
       </c>
       <c r="B4">
-        <v>9.434224128723145</v>
+        <v>7.879340648651123</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -740,7 +740,7 @@
         <v>2020</v>
       </c>
       <c r="B5">
-        <v>9.619049072265625</v>
+        <v>10.21976280212402</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -748,7 +748,7 @@
         <v>2021</v>
       </c>
       <c r="B6">
-        <v>13.25733661651611</v>
+        <v>13.17850685119629</v>
       </c>
     </row>
   </sheetData>
@@ -1134,7 +1134,7 @@
         <v>2022</v>
       </c>
       <c r="B2">
-        <v>10.35041809082031</v>
+        <v>9.694632530212402</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>2023</v>
       </c>
       <c r="B3">
-        <v>11.02667045593262</v>
+        <v>11.10707950592041</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>2024</v>
       </c>
       <c r="B4">
-        <v>12.09871101379395</v>
+        <v>10.9395170211792</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>2025</v>
       </c>
       <c r="B5">
-        <v>11.54695987701416</v>
+        <v>11.81722068786621</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>2026</v>
       </c>
       <c r="B6">
-        <v>12.58438396453857</v>
+        <v>12.34119987487793</v>
       </c>
     </row>
   </sheetData>
